--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="285">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -559,9 +559,6 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Entry in the bundle - will have a resource or information</t>
   </si>
   <si>
@@ -877,41 +874,6 @@
   </si>
   <si>
     <t>ClinicalDocument</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Patientリソース</t>
-  </si>
-  <si>
-    <t>Patientリソースのエントリー。</t>
-  </si>
-  <si>
-    <t>埋め込まれているPatientリソースを一意に識別するためのUUID</t>
-  </si>
-  <si>
-    <t>埋め込まれているPatientリソースを一意に識別するためのUUID。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubjectOfCare Client Resident
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Patient_ePrescriptionData}
-</t>
-  </si>
-  <si>
-    <t>Patientリソースのインスタンス本体</t>
-  </si>
-  <si>
-    <t>Patientリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>Patient[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
     <t>bundleForBunkatsu</t>
@@ -1265,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM145"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1276,7 +1238,7 @@
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -3101,7 +3063,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>75</v>
@@ -3119,10 +3081,10 @@
         <v>140</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3161,14 +3123,14 @@
         <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>169</v>
@@ -3183,7 +3145,7 @@
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3200,7 +3162,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3309,7 +3271,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3420,7 +3382,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3533,7 +3495,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3559,10 +3521,10 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3613,7 +3575,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3642,7 +3604,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3668,13 +3630,13 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3724,7 +3686,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3753,7 +3715,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3776,13 +3738,13 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3833,7 +3795,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3862,7 +3824,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3888,10 +3850,10 @@
         <v>140</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3942,7 +3904,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3951,7 +3913,7 @@
         <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>94</v>
@@ -3971,7 +3933,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4080,7 +4042,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4191,7 +4153,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4304,7 +4266,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4330,13 +4292,13 @@
         <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4365,11 +4327,11 @@
         <v>122</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4386,7 +4348,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4415,7 +4377,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4438,16 +4400,16 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4497,7 +4459,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4526,7 +4488,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4552,10 +4514,10 @@
         <v>140</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4606,7 +4568,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4615,7 +4577,7 @@
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>94</v>
@@ -4635,7 +4597,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4744,7 +4706,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4855,7 +4817,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4968,7 +4930,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4994,10 +4956,10 @@
         <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5027,11 +4989,11 @@
         <v>122</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5048,7 +5010,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>82</v>
@@ -5077,7 +5039,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5103,13 +5065,13 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5159,7 +5121,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>82</v>
@@ -5188,7 +5150,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5214,10 +5176,10 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5268,7 +5230,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5297,7 +5259,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5323,10 +5285,10 @@
         <v>127</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5377,7 +5339,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5406,7 +5368,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5432,10 +5394,10 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5486,7 +5448,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5515,7 +5477,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5541,10 +5503,10 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5595,7 +5557,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5624,7 +5586,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5650,10 +5612,10 @@
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5704,7 +5666,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5713,7 +5675,7 @@
         <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>94</v>
@@ -5733,7 +5695,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5842,7 +5804,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5953,7 +5915,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6066,7 +6028,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6092,10 +6054,10 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6146,7 +6108,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>82</v>
@@ -6175,7 +6137,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6201,10 +6163,10 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6255,7 +6217,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6284,7 +6246,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6310,13 +6272,13 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6366,7 +6328,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6395,7 +6357,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6421,13 +6383,13 @@
         <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6477,7 +6439,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6506,7 +6468,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6529,16 +6491,16 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6588,7 +6550,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6620,7 +6582,7 @@
         <v>169</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>73</v>
@@ -6645,10 +6607,10 @@
         <v>140</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6711,7 +6673,7 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>73</v>
@@ -6728,7 +6690,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6837,7 +6799,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6948,7 +6910,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7061,7 +7023,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7087,10 +7049,10 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7141,7 +7103,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7170,7 +7132,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7196,13 +7158,13 @@
         <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7252,7 +7214,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7281,7 +7243,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7304,16 +7266,16 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7363,7 +7325,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7375,16 +7337,16 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -7392,7 +7354,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7418,10 +7380,10 @@
         <v>140</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7472,7 +7434,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7481,7 +7443,7 @@
         <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>94</v>
@@ -7501,7 +7463,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7610,7 +7572,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7721,7 +7683,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7834,7 +7796,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7860,13 +7822,13 @@
         <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7895,11 +7857,11 @@
         <v>122</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
       </c>
@@ -7916,7 +7878,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7945,7 +7907,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7968,16 +7930,16 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8027,7 +7989,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8056,7 +8018,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8082,10 +8044,10 @@
         <v>140</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8136,7 +8098,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8145,7 +8107,7 @@
         <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>94</v>
@@ -8165,7 +8127,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8274,7 +8236,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8385,7 +8347,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8498,7 +8460,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8524,10 +8486,10 @@
         <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8557,11 +8519,11 @@
         <v>122</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>73</v>
       </c>
@@ -8578,7 +8540,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>82</v>
@@ -8607,7 +8569,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8633,13 +8595,13 @@
         <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8689,7 +8651,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>82</v>
@@ -8718,7 +8680,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8744,10 +8706,10 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8798,7 +8760,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -8827,7 +8789,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8853,10 +8815,10 @@
         <v>127</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8907,7 +8869,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -8936,7 +8898,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8962,10 +8924,10 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9016,7 +8978,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9045,7 +9007,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9071,10 +9033,10 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9125,7 +9087,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9154,7 +9116,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9180,10 +9142,10 @@
         <v>140</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9234,7 +9196,7 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -9243,7 +9205,7 @@
         <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>94</v>
@@ -9263,7 +9225,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9372,7 +9334,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9483,7 +9445,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9596,7 +9558,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9622,10 +9584,10 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9676,7 +9638,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>82</v>
@@ -9705,7 +9667,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9731,10 +9693,10 @@
         <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9785,7 +9747,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -9814,7 +9776,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9840,13 +9802,13 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9896,7 +9858,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -9925,7 +9887,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9951,13 +9913,13 @@
         <v>127</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10007,7 +9969,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10036,7 +9998,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10059,16 +10021,16 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10118,7 +10080,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10150,17 +10112,17 @@
         <v>169</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>83</v>
@@ -10175,10 +10137,10 @@
         <v>140</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10241,7 +10203,7 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
@@ -10258,7 +10220,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10367,7 +10329,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10478,7 +10440,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10591,7 +10553,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10617,10 +10579,10 @@
         <v>73</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10671,7 +10633,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10700,7 +10662,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10726,13 +10688,13 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="M86" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10782,7 +10744,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -10809,23 +10771,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>277</v>
+        <v>73</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>73</v>
@@ -10834,13 +10796,13 @@
         <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10891,7 +10853,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -10903,16 +10865,16 @@
         <v>73</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>73</v>
@@ -10920,7 +10882,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10931,7 +10893,7 @@
         <v>74</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>73</v>
@@ -10946,10 +10908,10 @@
         <v>140</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11000,7 +10962,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11009,7 +10971,7 @@
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>94</v>
@@ -11029,7 +10991,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11138,7 +11100,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11249,7 +11211,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11362,7 +11324,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11388,13 +11350,13 @@
         <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11423,11 +11385,11 @@
         <v>122</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
       </c>
@@ -11444,7 +11406,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -11473,7 +11435,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11496,16 +11458,16 @@
         <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11555,7 +11517,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11584,7 +11546,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11595,7 +11557,7 @@
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
@@ -11610,10 +11572,10 @@
         <v>140</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11664,7 +11626,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -11673,7 +11635,7 @@
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>94</v>
@@ -11693,7 +11655,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11802,7 +11764,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11913,7 +11875,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12026,7 +11988,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12052,10 +12014,10 @@
         <v>102</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12085,11 +12047,11 @@
         <v>122</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="Z98" t="s" s="2">
         <v>73</v>
       </c>
@@ -12106,7 +12068,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>82</v>
@@ -12135,7 +12097,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12161,13 +12123,13 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12217,7 +12179,7 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>82</v>
@@ -12246,7 +12208,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12272,10 +12234,10 @@
         <v>84</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12326,7 +12288,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12355,7 +12317,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12381,10 +12343,10 @@
         <v>127</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12435,7 +12397,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12464,7 +12426,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12490,10 +12452,10 @@
         <v>84</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12544,7 +12506,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -12573,7 +12535,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12599,10 +12561,10 @@
         <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12653,7 +12615,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12682,7 +12644,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12693,7 +12655,7 @@
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -12708,10 +12670,10 @@
         <v>140</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12762,7 +12724,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12771,7 +12733,7 @@
         <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>94</v>
@@ -12791,7 +12753,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12900,7 +12862,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13011,7 +12973,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13124,7 +13086,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13150,10 +13112,10 @@
         <v>84</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13204,7 +13166,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>82</v>
@@ -13233,7 +13195,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13259,10 +13221,10 @@
         <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13313,7 +13275,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13342,7 +13304,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13368,13 +13330,13 @@
         <v>84</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13424,7 +13386,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13453,7 +13415,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13479,13 +13441,13 @@
         <v>127</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13535,7 +13497,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -13564,7 +13526,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13587,16 +13549,16 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13646,7 +13608,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -13673,13 +13635,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>73</v>
       </c>
@@ -13688,10 +13648,10 @@
         <v>74</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>73</v>
@@ -13700,16 +13660,20 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L113" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>73</v>
       </c>
@@ -13757,19 +13721,19 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>73</v>
@@ -13781,3541 +13745,11 @@
         <v>73</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM145" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM145">
+  <autoFilter ref="A1:AM113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17325,7 +13759,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI144">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -565,7 +565,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
+    <t xml:space="preserve">profile:resolve()}
 </t>
   </si>
   <si>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -565,7 +565,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
+    <t xml:space="preserve">profile:resource.resolve()}
 </t>
   </si>
   <si>
@@ -1262,7 +1262,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle.xlsx
+++ b/StructureDefinition-EP-Bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
